--- a/百汇科技任务列表.xlsx
+++ b/百汇科技任务列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19100" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="1.前端任务列表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
   <si>
     <t>序号</t>
   </si>
@@ -192,58 +192,88 @@
     <t>梅乐球</t>
   </si>
   <si>
+    <t>my_mine</t>
+  </si>
+  <si>
     <t>7.2.1</t>
   </si>
   <si>
     <t>挣钱二维码</t>
   </si>
   <si>
+    <t>my_moneycode</t>
+  </si>
+  <si>
     <t>7.3.1</t>
   </si>
   <si>
     <t>资料认证</t>
   </si>
   <si>
+    <t>my_authentication</t>
+  </si>
+  <si>
     <t>7.4.1</t>
   </si>
   <si>
     <t>销售业绩管理</t>
   </si>
   <si>
+    <t>my_performance</t>
+  </si>
+  <si>
     <t>7.5.1</t>
   </si>
   <si>
     <t>会员功能</t>
   </si>
   <si>
+    <t>my_member</t>
+  </si>
+  <si>
     <t>7.5.2</t>
   </si>
   <si>
     <t>会员购买服务</t>
   </si>
   <si>
+    <t>my_membersev</t>
+  </si>
+  <si>
     <t>7.6.1</t>
   </si>
   <si>
     <t>申请记录</t>
   </si>
   <si>
+    <t>my_documentation</t>
+  </si>
+  <si>
     <t>7.7.1</t>
   </si>
   <si>
     <t>抢单/甩单记录</t>
   </si>
   <si>
+    <t>my_singlerecord</t>
+  </si>
+  <si>
     <t>7.8.1</t>
   </si>
   <si>
     <t>鱼包</t>
   </si>
   <si>
+    <t>my_purse</t>
+  </si>
+  <si>
     <t>7.9.1</t>
   </si>
   <si>
     <t>充值</t>
+  </si>
+  <si>
+    <t>my_recharge</t>
   </si>
   <si>
     <t>接口</t>
@@ -470,13 +500,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,29 +517,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,8 +530,38 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,14 +576,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,16 +589,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,9 +612,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,14 +644,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -615,22 +652,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,7 +692,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,7 +800,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,43 +830,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,67 +842,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,31 +860,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,32 +926,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,13 +950,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,6 +970,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,18 +1015,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,10 +1029,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1018,137 +1041,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1259,9 +1282,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1622,20 +1642,20 @@
   <sheetPr/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="23" customWidth="1"/>
+    <col min="1" max="1" width="9.25454545454545" style="23" customWidth="1"/>
     <col min="2" max="2" width="13" style="23" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="23" customWidth="1"/>
+    <col min="3" max="3" width="9.25454545454545" style="23" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="23" customWidth="1"/>
-    <col min="5" max="6" width="11.125" style="23" customWidth="1"/>
+    <col min="5" max="6" width="11.1272727272727" style="23" customWidth="1"/>
     <col min="7" max="8" width="13" style="24" customWidth="1"/>
-    <col min="9" max="9" width="34.375" style="25" customWidth="1"/>
-    <col min="10" max="10" width="28.75" style="23" customWidth="1"/>
+    <col min="9" max="9" width="34.3727272727273" style="25" customWidth="1"/>
+    <col min="10" max="10" width="28.7545454545455" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1663,7 +1683,7 @@
       <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="26" t="s">
@@ -1691,7 +1711,7 @@
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
-      <c r="I2" s="42">
+      <c r="I2" s="41">
         <f>G2-H2</f>
         <v>0</v>
       </c>
@@ -1716,7 +1736,7 @@
       </c>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
-      <c r="I3" s="42"/>
+      <c r="I3" s="41"/>
       <c r="J3" s="28"/>
     </row>
     <row r="4" spans="1:10">
@@ -1738,7 +1758,7 @@
       </c>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
-      <c r="I4" s="42"/>
+      <c r="I4" s="41"/>
       <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:10">
@@ -1762,7 +1782,7 @@
       </c>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
-      <c r="I5" s="42"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10">
@@ -1790,7 +1810,7 @@
       <c r="H6" s="34">
         <v>42828</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="42" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="33"/>
@@ -1814,7 +1834,7 @@
       </c>
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="42" t="s">
         <v>29</v>
       </c>
       <c r="J7" s="33"/>
@@ -1838,7 +1858,7 @@
       </c>
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="42" t="s">
         <v>32</v>
       </c>
       <c r="J8" s="33"/>
@@ -1862,7 +1882,7 @@
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
-      <c r="I9" s="43"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="33" t="s">
         <v>35</v>
       </c>
@@ -1892,7 +1912,7 @@
       <c r="H10" s="34">
         <v>42829</v>
       </c>
-      <c r="I10" s="43"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10">
@@ -1914,7 +1934,7 @@
       </c>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
-      <c r="I11" s="43"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10">
@@ -1938,7 +1958,7 @@
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
-      <c r="I12" s="43"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10">
@@ -1960,7 +1980,7 @@
       </c>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
-      <c r="I13" s="43"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10">
@@ -1986,7 +2006,7 @@
       <c r="H14" s="34">
         <v>42832</v>
       </c>
-      <c r="I14" s="43"/>
+      <c r="I14" s="42"/>
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10">
@@ -2010,7 +2030,7 @@
       </c>
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
-      <c r="I15" s="43"/>
+      <c r="I15" s="42"/>
       <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10">
@@ -2032,7 +2052,7 @@
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
-      <c r="I16" s="43"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10">
@@ -2060,7 +2080,9 @@
       <c r="H17" s="34">
         <v>42828</v>
       </c>
-      <c r="I17" s="43"/>
+      <c r="I17" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10">
@@ -2068,21 +2090,23 @@
         <v>17</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E18" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="33" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
-      <c r="I18" s="43"/>
+      <c r="I18" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10">
@@ -2090,21 +2114,23 @@
         <v>18</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="33" t="s">
         <v>56</v>
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
-      <c r="I19" s="44"/>
+      <c r="I19" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10">
@@ -2112,21 +2138,23 @@
         <v>19</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="33" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="33" t="s">
         <v>56</v>
       </c>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
-      <c r="I20" s="44"/>
+      <c r="I20" s="43" t="s">
+        <v>66</v>
+      </c>
       <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10">
@@ -2134,16 +2162,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="33" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="33" t="s">
         <v>56</v>
       </c>
       <c r="G21" s="34">
@@ -2152,7 +2180,9 @@
       <c r="H21" s="34">
         <v>42829</v>
       </c>
-      <c r="I21" s="44"/>
+      <c r="I21" s="43" t="s">
+        <v>69</v>
+      </c>
       <c r="J21" s="33"/>
     </row>
     <row r="22" spans="1:10">
@@ -2160,21 +2190,23 @@
         <v>21</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="33" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="33" t="s">
         <v>56</v>
       </c>
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
-      <c r="I22" s="44"/>
+      <c r="I22" s="43" t="s">
+        <v>72</v>
+      </c>
       <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10">
@@ -2182,21 +2214,23 @@
         <v>22</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="33" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="33" t="s">
         <v>56</v>
       </c>
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
-      <c r="I23" s="44"/>
+      <c r="I23" s="43" t="s">
+        <v>75</v>
+      </c>
       <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10">
@@ -2204,21 +2238,23 @@
         <v>23</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="33" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="F24" s="33" t="s">
         <v>56</v>
       </c>
       <c r="G24" s="36"/>
       <c r="H24" s="36"/>
-      <c r="I24" s="44"/>
+      <c r="I24" s="43" t="s">
+        <v>78</v>
+      </c>
       <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10">
@@ -2226,16 +2262,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="33" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="33" t="s">
         <v>56</v>
       </c>
       <c r="G25" s="34">
@@ -2244,7 +2280,9 @@
       <c r="H25" s="34">
         <v>42832</v>
       </c>
-      <c r="I25" s="44"/>
+      <c r="I25" s="43" t="s">
+        <v>81</v>
+      </c>
       <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10">
@@ -2252,21 +2290,23 @@
         <v>25</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="33" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="33" t="s">
         <v>56</v>
       </c>
       <c r="G26" s="36"/>
       <c r="H26" s="36"/>
-      <c r="I26" s="44"/>
+      <c r="I26" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="J26" s="33"/>
     </row>
   </sheetData>
@@ -2302,20 +2342,20 @@
   <sheetPr/>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25454545454545" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="5" width="25.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.12727272727273" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.37272727272727" style="1" customWidth="1"/>
     <col min="9" max="9" width="23" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.8727272727273" style="2" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
     <col min="12" max="12" width="49.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="25.5" style="3" customWidth="1"/>
@@ -2336,7 +2376,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -2346,10 +2386,10 @@
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="13" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>8</v>
@@ -2363,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
@@ -2372,13 +2412,13 @@
         <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="14"/>
@@ -2394,27 +2434,27 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2422,20 +2462,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="14"/>
@@ -2448,25 +2488,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="5"/>
       <c r="L5" s="15" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2474,18 +2514,18 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="14"/>
@@ -2498,7 +2538,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>23</v>
@@ -2507,13 +2547,13 @@
         <v>28</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="16">
@@ -2524,10 +2564,10 @@
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="18" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2535,20 +2575,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="20"/>
@@ -2561,7 +2601,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>37</v>
@@ -2570,23 +2610,23 @@
         <v>37</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="17"/>
       <c r="L9" s="18" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2594,27 +2634,27 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="17"/>
       <c r="L10" s="21" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2622,7 +2662,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>41</v>
@@ -2631,13 +2671,13 @@
         <v>42</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="22"/>
@@ -2650,20 +2690,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="16">
@@ -2680,25 +2720,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="11"/>
       <c r="E13" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="17"/>
       <c r="L13" s="18" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2706,20 +2746,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="20"/>
@@ -2741,20 +2781,20 @@
         <v>50</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
       <c r="K15" s="17"/>
       <c r="L15" s="21" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2762,7 +2802,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>54</v>
@@ -2771,13 +2811,13 @@
         <v>55</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="16">
@@ -2794,18 +2834,18 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="11"/>
       <c r="E17" s="9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="20"/>
@@ -2818,20 +2858,20 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="20"/>
@@ -2844,18 +2884,18 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="11"/>
       <c r="E19" s="9" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="20"/>
@@ -2868,20 +2908,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="20"/>
@@ -2894,18 +2934,18 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="11"/>
       <c r="E21" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="20">
@@ -2922,20 +2962,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="20"/>
@@ -2948,18 +2988,18 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="12"/>
       <c r="E23" s="9" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="20"/>
@@ -2972,27 +3012,27 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
       <c r="K24" s="9"/>
       <c r="L24" s="21" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3000,20 +3040,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="20">
@@ -3030,20 +3070,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="10" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="20"/>
@@ -3056,18 +3096,18 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="12"/>
       <c r="E27" s="9" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="20"/>
@@ -3080,18 +3120,18 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="11"/>
       <c r="E28" s="9" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="20"/>
@@ -3104,20 +3144,20 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="10" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="20"/>
@@ -3133,13 +3173,13 @@
       <c r="C30" s="9"/>
       <c r="D30" s="11"/>
       <c r="E30" s="9" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="20"/>
@@ -3152,27 +3192,27 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
       <c r="K31" s="9"/>
       <c r="L31" s="21" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/百汇科技任务列表.xlsx
+++ b/百汇科技任务列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7320"/>
+    <workbookView windowWidth="19965" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="1.前端任务列表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160">
   <si>
     <t>序号</t>
   </si>
@@ -126,6 +126,9 @@
     <t>提交成功（复用结果页面）</t>
   </si>
   <si>
+    <t>high_loan_apply_suc.html</t>
+  </si>
+  <si>
     <t>提示成功返回到我的-申请记录</t>
   </si>
   <si>
@@ -135,10 +138,16 @@
     <t>精准推送</t>
   </si>
   <si>
+    <t>precision_push.html</t>
+  </si>
+  <si>
     <t>4.2.1</t>
   </si>
   <si>
     <t>精准推送结果</t>
+  </si>
+  <si>
+    <t>precision_push_list.html</t>
   </si>
   <si>
     <t>5.1.0</t>
@@ -500,9 +509,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -523,7 +532,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,24 +554,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,23 +576,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,7 +599,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,6 +646,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -620,40 +661,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,7 +701,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,7 +767,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,25 +827,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,91 +857,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,25 +869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,6 +937,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -935,17 +955,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,8 +1003,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -977,49 +1012,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,10 +1038,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1041,133 +1050,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1643,19 +1652,19 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.25454545454545" style="23" customWidth="1"/>
+    <col min="1" max="1" width="9.25833333333333" style="23" customWidth="1"/>
     <col min="2" max="2" width="13" style="23" customWidth="1"/>
-    <col min="3" max="3" width="9.25454545454545" style="23" customWidth="1"/>
+    <col min="3" max="3" width="9.25833333333333" style="23" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="23" customWidth="1"/>
-    <col min="5" max="6" width="11.1272727272727" style="23" customWidth="1"/>
+    <col min="5" max="6" width="11.125" style="23" customWidth="1"/>
     <col min="7" max="8" width="13" style="24" customWidth="1"/>
-    <col min="9" max="9" width="34.3727272727273" style="25" customWidth="1"/>
-    <col min="10" max="10" width="28.7545454545455" style="23" customWidth="1"/>
+    <col min="9" max="9" width="34.375" style="25" customWidth="1"/>
+    <col min="10" max="10" width="28.7583333333333" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1882,9 +1891,11 @@
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
-      <c r="I9" s="42"/>
+      <c r="I9" s="42" t="s">
+        <v>35</v>
+      </c>
       <c r="J9" s="33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1892,13 +1903,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>13</v>
@@ -1912,7 +1923,9 @@
       <c r="H10" s="34">
         <v>42829</v>
       </c>
-      <c r="I10" s="42"/>
+      <c r="I10" s="42" t="s">
+        <v>39</v>
+      </c>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10">
@@ -1920,11 +1933,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" s="33" t="s">
         <v>13</v>
@@ -1934,7 +1947,9 @@
       </c>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
-      <c r="I11" s="42"/>
+      <c r="I11" s="42" t="s">
+        <v>42</v>
+      </c>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10">
@@ -1942,16 +1957,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F12" s="33" t="s">
         <v>25</v>
@@ -1966,14 +1981,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>25</v>
@@ -1988,14 +2003,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F14" s="33" t="s">
         <v>25</v>
@@ -2014,16 +2029,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F15" s="33" t="s">
         <v>25</v>
@@ -2038,14 +2053,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F16" s="33" t="s">
         <v>25</v>
@@ -2060,19 +2075,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G17" s="34">
         <v>42828</v>
@@ -2081,7 +2096,7 @@
         <v>42828</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J17" s="33"/>
     </row>
@@ -2090,22 +2105,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>56</v>
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="42" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J18" s="33"/>
     </row>
@@ -2114,22 +2129,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="33" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="43" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J19" s="33"/>
     </row>
@@ -2138,22 +2153,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J20" s="33"/>
     </row>
@@ -2162,17 +2177,17 @@
         <v>20</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G21" s="34">
         <v>42829</v>
@@ -2181,7 +2196,7 @@
         <v>42829</v>
       </c>
       <c r="I21" s="43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J21" s="33"/>
     </row>
@@ -2190,22 +2205,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J22" s="33"/>
     </row>
@@ -2214,22 +2229,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="33" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
       <c r="I23" s="43" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J23" s="33"/>
     </row>
@@ -2238,22 +2253,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="33" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G24" s="36"/>
       <c r="H24" s="36"/>
       <c r="I24" s="43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J24" s="33"/>
     </row>
@@ -2262,17 +2277,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="33" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G25" s="34">
         <v>42830</v>
@@ -2281,7 +2296,7 @@
         <v>42832</v>
       </c>
       <c r="I25" s="43" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J25" s="33"/>
     </row>
@@ -2290,22 +2305,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="33" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G26" s="36"/>
       <c r="H26" s="36"/>
       <c r="I26" s="43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J26" s="33"/>
     </row>
@@ -2346,16 +2361,16 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.25454545454545" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25833333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="5" width="25.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.12727272727273" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.37272727272727" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="23" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.8727272727273" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.875" style="2" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
     <col min="12" max="12" width="49.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="25.5" style="3" customWidth="1"/>
@@ -2376,7 +2391,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -2386,10 +2401,10 @@
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>8</v>
@@ -2403,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
@@ -2412,13 +2427,13 @@
         <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="14"/>
@@ -2434,27 +2449,27 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2462,20 +2477,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="14"/>
@@ -2488,25 +2503,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="5"/>
       <c r="L5" s="15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2514,18 +2529,18 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="14"/>
@@ -2538,7 +2553,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>23</v>
@@ -2547,13 +2562,13 @@
         <v>28</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="16">
@@ -2564,10 +2579,10 @@
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2575,20 +2590,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="20"/>
@@ -2601,32 +2616,32 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="17"/>
       <c r="L9" s="18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2634,27 +2649,27 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="17"/>
       <c r="L10" s="21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2662,22 +2677,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="22"/>
@@ -2690,20 +2705,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="16">
@@ -2720,25 +2735,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="11"/>
       <c r="E13" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="17"/>
       <c r="L13" s="18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2746,20 +2761,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="20"/>
@@ -2772,29 +2787,29 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
       <c r="K15" s="17"/>
       <c r="L15" s="21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2802,22 +2817,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="16">
@@ -2834,18 +2849,18 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="11"/>
       <c r="E17" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="20"/>
@@ -2858,20 +2873,20 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="20"/>
@@ -2884,18 +2899,18 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="11"/>
       <c r="E19" s="9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="20"/>
@@ -2908,20 +2923,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="20"/>
@@ -2934,18 +2949,18 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="11"/>
       <c r="E21" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="20">
@@ -2962,20 +2977,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="20"/>
@@ -2988,18 +3003,18 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="12"/>
       <c r="E23" s="9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="20"/>
@@ -3012,27 +3027,27 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
       <c r="K24" s="9"/>
       <c r="L24" s="21" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3040,20 +3055,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="20">
@@ -3070,20 +3085,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="20"/>
@@ -3096,18 +3111,18 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="12"/>
       <c r="E27" s="9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="20"/>
@@ -3120,18 +3135,18 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="11"/>
       <c r="E28" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="20"/>
@@ -3144,20 +3159,20 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="20"/>
@@ -3173,13 +3188,13 @@
       <c r="C30" s="9"/>
       <c r="D30" s="11"/>
       <c r="E30" s="9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="20"/>
@@ -3192,27 +3207,27 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
       <c r="K31" s="9"/>
       <c r="L31" s="21" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/百汇科技任务列表.xlsx
+++ b/百汇科技任务列表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\damon\员工贷文件\百汇\ITlittlefish\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19965" windowHeight="12045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19965" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="1.前端任务列表" sheetId="1" r:id="rId1"/>
@@ -14,12 +19,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1.前端任务列表'!$A$1:$J$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2.接口任务列表'!$A$1:$L$31</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="164">
   <si>
     <t>序号</t>
   </si>
@@ -502,20 +507,42 @@
   </si>
   <si>
     <t>1、非注册用户提示注册</t>
+  </si>
+  <si>
+    <r>
+      <t>grab_drop_order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.html</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grab_order_details.html</t>
+  </si>
+  <si>
+    <t>grab_drop_order_apply_suc.html</t>
+  </si>
+  <si>
+    <t>drop_order_apply.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,151 +551,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,7 +575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,192 +587,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -934,256 +658,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1191,39 +673,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1233,19 +694,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1254,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1263,34 +718,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1305,59 +736,86 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1647,170 +1105,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.25833333333333" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13" style="23" customWidth="1"/>
-    <col min="3" max="3" width="9.25833333333333" style="23" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="23" customWidth="1"/>
-    <col min="5" max="6" width="11.125" style="23" customWidth="1"/>
-    <col min="7" max="8" width="13" style="24" customWidth="1"/>
-    <col min="9" max="9" width="34.375" style="25" customWidth="1"/>
-    <col min="10" max="10" width="28.7583333333333" style="23" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="14" customWidth="1"/>
+    <col min="2" max="2" width="13" style="14" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="14" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="14" customWidth="1"/>
+    <col min="5" max="6" width="11.125" style="14" customWidth="1"/>
+    <col min="7" max="8" width="13" style="15" customWidth="1"/>
+    <col min="9" max="9" width="34.375" style="16" customWidth="1"/>
+    <col min="10" max="10" width="28.75" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="28">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="28" t="s">
+      <c r="E2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="41">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="24">
         <f>G2-H2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="28"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="28">
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="28" t="s">
+      <c r="E3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="28"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="28">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="28" t="s">
+      <c r="E4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="28"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="23">
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="28" t="s">
+      <c r="E5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="28"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="33">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="33" t="s">
+      <c r="E6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="34">
@@ -1819,102 +1276,102 @@
       <c r="H6" s="34">
         <v>42828</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="33"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="33">
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="33" t="s">
+      <c r="E7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="33"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="33">
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="33" t="s">
+      <c r="E8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="33"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="33">
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="33" t="s">
+      <c r="E9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="33">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="33" t="s">
+      <c r="E10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="34">
@@ -1923,96 +1380,100 @@
       <c r="H10" s="34">
         <v>42829</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="33"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="33">
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="33" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="33" t="s">
+      <c r="E11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="33"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="33">
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="22">
         <v>11</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="22" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="33"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="33">
+      <c r="I12" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="22" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="33"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="33">
-        <v>13</v>
-      </c>
-      <c r="B14" s="33" t="s">
+      <c r="I13" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="22" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="34">
@@ -2021,72 +1482,78 @@
       <c r="H14" s="34">
         <v>42832</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="33">
+      <c r="I14" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="22">
         <v>14</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="22" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="33">
+      <c r="I15" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="22">
         <v>15</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="22" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="33"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="33">
+      <c r="I16" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="22">
         <v>16</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="33" t="s">
+      <c r="E17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="22" t="s">
         <v>59</v>
       </c>
       <c r="G17" s="34">
@@ -2095,98 +1562,98 @@
       <c r="H17" s="34">
         <v>42828</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="33"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="33">
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="22">
         <v>17</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="33" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="33" t="s">
+      <c r="E18" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>59</v>
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="33"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="33">
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="22">
         <v>18</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="33" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="33" t="s">
+      <c r="E19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="22" t="s">
         <v>59</v>
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="33"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="33">
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="22">
         <v>19</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="33" t="s">
+      <c r="C20" s="33"/>
+      <c r="D20" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="33" t="s">
+      <c r="E20" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>59</v>
       </c>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
-      <c r="I20" s="43" t="s">
+      <c r="I20" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="J20" s="33"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="33">
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="22">
         <v>20</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="33" t="s">
+      <c r="C21" s="33"/>
+      <c r="D21" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="33" t="s">
+      <c r="E21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>59</v>
       </c>
       <c r="G21" s="34">
@@ -2195,98 +1662,98 @@
       <c r="H21" s="34">
         <v>42829</v>
       </c>
-      <c r="I21" s="43" t="s">
+      <c r="I21" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="33"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="33">
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="22">
         <v>21</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="33" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="33" t="s">
+      <c r="E22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>59</v>
       </c>
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="J22" s="33"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="33">
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="22">
         <v>22</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="33" t="s">
+      <c r="C23" s="33"/>
+      <c r="D23" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="33" t="s">
+      <c r="E23" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="22" t="s">
         <v>59</v>
       </c>
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="J23" s="33"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="33">
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="22">
         <v>23</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="33" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="33" t="s">
+      <c r="E24" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="36"/>
       <c r="H24" s="36"/>
-      <c r="I24" s="43" t="s">
+      <c r="I24" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="J24" s="33"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="33">
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="22">
         <v>24</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="33" t="s">
+      <c r="C25" s="33"/>
+      <c r="D25" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="33" t="s">
+      <c r="E25" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="22" t="s">
         <v>59</v>
       </c>
       <c r="G25" s="34">
@@ -2295,43 +1762,44 @@
       <c r="H25" s="34">
         <v>42832</v>
       </c>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="J25" s="33"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="33">
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="22">
         <v>25</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="33" t="s">
+      <c r="C26" s="32"/>
+      <c r="D26" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="33" t="s">
+      <c r="E26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="22" t="s">
         <v>59</v>
       </c>
       <c r="G26" s="36"/>
       <c r="H26" s="36"/>
-      <c r="I26" s="43" t="s">
+      <c r="I26" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="J26" s="33"/>
+      <c r="J26" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J26"/>
   <mergeCells count="18">
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="H21:H24"/>
     <mergeCell ref="C17:C26"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="G10:G13"/>
@@ -2339,31 +1807,29 @@
     <mergeCell ref="G17:G20"/>
     <mergeCell ref="G21:G24"/>
     <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.25833333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="5" width="25.5" style="1" customWidth="1"/>
@@ -2377,7 +1843,7 @@
     <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2400,10 +1866,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="7" t="s">
         <v>90</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -2413,14 +1879,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -2436,22 +1902,22 @@
         <v>93</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="5">
         <f>I2-J2</f>
         <v>0</v>
       </c>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
@@ -2465,22 +1931,22 @@
         <v>93</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="41" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -2493,20 +1959,20 @@
         <v>93</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="5" t="s">
         <v>100</v>
       </c>
@@ -2517,22 +1983,22 @@
         <v>93</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="41"/>
       <c r="E6" s="5" t="s">
         <v>103</v>
       </c>
@@ -2543,25 +2009,25 @@
         <v>93</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="15"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:13">
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>105</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -2571,32 +2037,32 @@
         <v>93</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="16">
+      <c r="I7" s="45">
         <v>42833</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="45">
         <v>42833</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18" t="s">
+      <c r="K7" s="10"/>
+      <c r="L7" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="40"/>
+      <c r="D8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>109</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -2606,25 +2072,25 @@
         <v>93</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:13">
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>111</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -2634,28 +2100,28 @@
         <v>93</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18" t="s">
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>115</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -2665,584 +2131,579 @@
         <v>93</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="21" t="s">
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>93</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="40"/>
+      <c r="D12" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>93</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="16">
+      <c r="I12" s="45">
         <v>42834</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="45">
         <v>42834</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1" spans="1:12">
+      <c r="K12" s="10"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="9" t="s">
+      <c r="C13" s="40"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>93</v>
       </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18" t="s">
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="40"/>
+      <c r="D14" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>93</v>
       </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="18"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>93</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="21" t="s">
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>129</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="16">
+      <c r="I16" s="45">
         <v>42833</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="45">
         <v>42833</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="K16" s="10"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="9" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>129</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>129</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="9" t="s">
+      <c r="C19" s="40"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>129</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>129</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="9" t="s">
+      <c r="C21" s="40"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>129</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="20">
+      <c r="I21" s="46">
         <v>42834</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="46">
         <v>42834</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>129</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="9" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>129</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
+      <c r="C24" s="40"/>
+      <c r="D24" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>93</v>
       </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="21" t="s">
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="40"/>
+      <c r="D25" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>129</v>
       </c>
       <c r="H25" s="5"/>
-      <c r="I25" s="20">
+      <c r="I25" s="46">
         <v>42835</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="46">
         <v>42839</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10" t="s">
+      <c r="C26" s="40"/>
+      <c r="D26" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>129</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="9" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>129</v>
       </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="9" t="s">
+      <c r="C28" s="40"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>129</v>
       </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>93</v>
       </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="9" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>93</v>
       </c>
       <c r="H30" s="5"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="40"/>
+      <c r="D31" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>93</v>
       </c>
       <c r="H31" s="5"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="21" t="s">
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="13" t="s">
         <v>159</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L31"/>
   <mergeCells count="23">
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C31"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="J25:J31"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="D29:D30"/>
@@ -3251,14 +2712,19 @@
     <mergeCell ref="I16:I20"/>
     <mergeCell ref="I21:I24"/>
     <mergeCell ref="I25:I31"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="J16:J20"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="J25:J31"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C31"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>